--- a/IN4RE/ExecutionController/TestSet1.xlsx
+++ b/IN4RE/ExecutionController/TestSet1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F4E04-5D81-421D-BC88-B428928BA98A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F709B00-294F-4DCC-AE1B-EA59C696BDB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="5895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Status</t>
   </si>
@@ -72,8 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,16 +502,16 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -559,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="I3" t="s">

--- a/IN4RE/ExecutionController/TestSet1.xlsx
+++ b/IN4RE/ExecutionController/TestSet1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F709B00-294F-4DCC-AE1B-EA59C696BDB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727D69C-1FE3-479F-8716-AAA00817C586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="5895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="2580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Status</t>
   </si>
@@ -66,13 +66,26 @@
   </si>
   <si>
     <t>com.in4qa.FINANCE.Tests.Configure_CompanyDetailsTests</t>
+  </si>
+  <si>
+    <t>com.in4qa.Purchase.Tests.Inventory_Indents_tests</t>
+  </si>
+  <si>
+    <t>Create Indent</t>
+  </si>
+  <si>
+    <t>Create PO</t>
+  </si>
+  <si>
+    <t>com.in4qa.Purchase.Tests.Inventory_Purchase_Order_Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,19 +512,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -558,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
       <c r="I3" t="s">
@@ -588,9 +601,33 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/IN4RE/ExecutionController/TestSet1.xlsx
+++ b/IN4RE/ExecutionController/TestSet1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727D69C-1FE3-479F-8716-AAA00817C586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C412C-8328-4933-AE02-4DCC8FF5CD38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="2580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Status</t>
   </si>
@@ -515,7 +515,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IN4RE/ExecutionController/TestSet1.xlsx
+++ b/IN4RE/ExecutionController/TestSet1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C412C-8328-4933-AE02-4DCC8FF5CD38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABE1F37-621D-42FB-9219-39DC08221048}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="2580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Status</t>
   </si>
@@ -515,7 +515,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3"/>
     </row>

--- a/IN4RE/ExecutionController/TestSet1.xlsx
+++ b/IN4RE/ExecutionController/TestSet1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABE1F37-621D-42FB-9219-39DC08221048}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97021852-AA04-43FB-AE62-7075CD3C0DF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="2580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Status</t>
   </si>

--- a/IN4RE/ExecutionController/TestSet1.xlsx
+++ b/IN4RE/ExecutionController/TestSet1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97021852-AA04-43FB-AE62-7075CD3C0DF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0206CFA8-A356-4FC1-8064-D455A86EF724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="2580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Status</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>com.in4qa.Purchase.Tests.Inventory_Purchase_Order_Test</t>
+  </si>
+  <si>
+    <t>Create BOQ</t>
+  </si>
+  <si>
+    <t>com.in4qa.Engineering.Tests.Master_BOQ_Test</t>
   </si>
 </sst>
 </file>
@@ -512,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,9 +631,21 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
